--- a/Lote de prueba.xlsx
+++ b/Lote de prueba.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laboratorios\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jennifer\Documents\Facultad\Analisis software\TP-1-triangulo-master\TP-1-triangulo-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
   <si>
     <t>N° Caso</t>
   </si>
@@ -36,6 +36,84 @@
   </si>
   <si>
     <t>Resultado Esperado</t>
+  </si>
+  <si>
+    <t>Escaleno</t>
+  </si>
+  <si>
+    <t>L1 = 2  L2 = 3  L3 = 4</t>
+  </si>
+  <si>
+    <t>L1 = 2  L2 = 2  L3 = 3</t>
+  </si>
+  <si>
+    <t>Isosceles</t>
+  </si>
+  <si>
+    <t>L1 = 2  L2 = 2  L3 = 2</t>
+  </si>
+  <si>
+    <t>Equilatero</t>
+  </si>
+  <si>
+    <t>L1 =4  L2 = 4  L3 =5</t>
+  </si>
+  <si>
+    <t>L1 =5  L2 = 4  L3 =4</t>
+  </si>
+  <si>
+    <t>L1 =4  L2 = 5  L3 =4</t>
+  </si>
+  <si>
+    <t>L1 =0  L2 = 4  L3 =4</t>
+  </si>
+  <si>
+    <t>LOS LADOS INGRESARON NO FORMAN UN  TRIANGULO</t>
+  </si>
+  <si>
+    <t>EL NUMERO INGRESADO NO ES POSITIVO - Vuelva a ingresar el numero</t>
+  </si>
+  <si>
+    <t>Valor inválido y que permita reingresar el valor</t>
+  </si>
+  <si>
+    <t>L1 =-2  L2 = 4  L3 =4</t>
+  </si>
+  <si>
+    <t>L1 =1  L2 = 1  L3 =2</t>
+  </si>
+  <si>
+    <t>L1 =2  L2 = 1  L3 =1</t>
+  </si>
+  <si>
+    <t>L1 =1  L2 = 2  L3 =1</t>
+  </si>
+  <si>
+    <t>L1 =2  L2 = 4  L3 =6</t>
+  </si>
+  <si>
+    <t>L1 =4  L2 =6  L3 =2</t>
+  </si>
+  <si>
+    <t>L1 =6  L2 =2  L3 =4</t>
+  </si>
+  <si>
+    <t>L1 =0  L2 =0  L3 =0</t>
+  </si>
+  <si>
+    <t>L1 =3,2  L2 =2  L3 =4</t>
+  </si>
+  <si>
+    <t>L1 =2  L2 =ab L3 =4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL NUMERO INGRESADO NO ES UN NUMERO - Vuelva a ingresar el numero: </t>
+  </si>
+  <si>
+    <t>Test 14</t>
+  </si>
+  <si>
+    <t>Si</t>
   </si>
 </sst>
 </file>
@@ -59,10 +137,49 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -71,8 +188,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,6 +296,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -201,6 +348,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,133 +517,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="49.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="E1" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
+      <c r="E20" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
